--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -111,15 +111,20 @@
   </si>
   <si>
     <t xml:space="preserve">Pay at start = </t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -194,6 +199,13 @@
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,9 +499,11 @@
     <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -499,50 +513,61 @@
       </c>
       <c r="E1" s="11">
         <f>PMT(B3/B7,B6*B7,-B2,B1,B9)</f>
-        <v>582.77968330058559</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="3">
-        <v>0.1222</v>
+        <v>0.14630000000000001</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3">
-        <f>RATE(B6*B7,B4,-B2,B1,B9)</f>
-        <v>1.0183370571145007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="e">
+        <f>RATE(B6*B7,B4,-B2,B1,B9)*100</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="9">
-        <v>582.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="11">
         <f>-PV(B3/B7,B6*B7,B4,B1,B9)</f>
-        <v>15000.008151435964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12499.848546225619</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="13">
+        <f>E5+F5</f>
+        <v>17499.848546225621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,16 +575,24 @@
         <f>30/12</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f>(B4/(B3/B7))*(1-(1/POWER(1+(B3/B7),B6*B7)))</f>
+        <v>12499.848546225619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -569,6 +602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
     <sheet name="Bonds" sheetId="1" r:id="rId2"/>
     <sheet name="Bond Changing YTM" sheetId="2" r:id="rId3"/>
+    <sheet name="NPV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -114,6 +115,51 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flows = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Return Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth Rate = </t>
+  </si>
+  <si>
+    <t>Constant Payback</t>
+  </si>
+  <si>
+    <t>Variable Payback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant Cash Flow = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV =  </t>
+  </si>
+  <si>
+    <t>IIR ignores resource consraints but tells us the discount rate we can switch from one project to another</t>
+  </si>
+  <si>
+    <t>A pitfall of using the IRR is "cash flows changing signs."</t>
+  </si>
+  <si>
+    <t>PI factors in resource constraints because it is NPV divided investment cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment amount = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">investment = </t>
   </si>
 </sst>
 </file>
@@ -124,9 +170,9 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +186,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +205,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -204,9 +264,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +840,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,4 +951,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="601" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-100000</v>
+      </c>
+      <c r="C4" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D4" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>90000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15">
+        <f>NPV($B$7-$B$8,B4)</f>
+        <v>-87719.298245614031</v>
+      </c>
+      <c r="C5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:C4)+$B$4</f>
+        <v>-56140.350877192985</v>
+      </c>
+      <c r="D5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:D4)+$B$4</f>
+        <v>-6124.9615266235924</v>
+      </c>
+      <c r="E5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:E4)+$B$4</f>
+        <v>54622.474931557837</v>
+      </c>
+      <c r="F5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:F4)+$B$4</f>
+        <v>54622.474931557837</v>
+      </c>
+      <c r="G5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:G4)+$B$4</f>
+        <v>54622.474931557837</v>
+      </c>
+      <c r="H5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:H4)+$B$4</f>
+        <v>54622.474931557837</v>
+      </c>
+      <c r="I5" s="15">
+        <f>NPV($B$7-$B$8,$C$4:I4)+$B$4</f>
+        <v>54622.474931557837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="15">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="15">
+        <f>-B13+(B14/(B16-B17))</f>
+        <v>-100000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="18">
+        <f>RATE(E11,E13,-E14)</f>
+        <v>0.10008203492757527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
     <sheet name="Bonds" sheetId="1" r:id="rId2"/>
     <sheet name="Bond Changing YTM" sheetId="2" r:id="rId3"/>
     <sheet name="NPV" sheetId="4" r:id="rId4"/>
+    <sheet name="NPV2" sheetId="6" r:id="rId5"/>
+    <sheet name="Incremental NVP" sheetId="8" r:id="rId6"/>
+    <sheet name="Many NPV" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -160,6 +163,105 @@
   </si>
   <si>
     <t xml:space="preserve">investment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum deviation = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cash Flows = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVP = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Benefit = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefit = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost = </t>
+  </si>
+  <si>
+    <t>Constant Payback and Cost</t>
+  </si>
+  <si>
+    <t>Payback =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremental IRR = </t>
+  </si>
+  <si>
+    <t>Incremental IRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Flow Two = </t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incremental NPV = </t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Expected Sale</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Mountain Ridge</t>
+  </si>
+  <si>
+    <t>Ocean Park Estates</t>
+  </si>
+  <si>
+    <t>Lakeview</t>
+  </si>
+  <si>
+    <t>Seabreeze</t>
+  </si>
+  <si>
+    <t>Green Hills</t>
+  </si>
+  <si>
+    <t>West Ranch</t>
   </si>
 </sst>
 </file>
@@ -172,7 +274,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +296,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +335,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -223,11 +356,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -271,6 +453,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +1110,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,247 +1225,1489 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-29</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>18</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="K3" s="15">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="15">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="M3" s="15">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15">
-        <v>-100000</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B4" s="15"/>
       <c r="C4" s="15">
-        <v>50000</v>
+        <f>NPV($B$8-$B$9,$C$3:C3)+$B$3</f>
+        <v>-9.9523809523809526</v>
       </c>
       <c r="D4" s="15">
-        <v>65000</v>
+        <f>NPV($B$8-$B$9,$C$3:D3)+$B$3</f>
+        <v>6.3741496598639387</v>
       </c>
       <c r="E4" s="15">
-        <v>90000</v>
+        <f>NPV($B$8-$B$9,$C$3:E3)+$B$3</f>
+        <v>1215.7467876039304</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
+        <f>NPV($B$8-$B$9,$C$3:F3)+$B$3</f>
+        <v>2367.5302523125647</v>
+      </c>
+      <c r="G4" s="20">
+        <f>NPV($B$8-$B$9,$C$3:G3)+$B$3</f>
+        <v>3464.4668853684075</v>
       </c>
       <c r="H4" s="15">
-        <v>0</v>
+        <f>NPV($B$8-$B$9,$C$3:H3)+$B$3</f>
+        <v>4509.168440659686</v>
       </c>
       <c r="I4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>NPV($B$8-$B$9,$C$3:I3)+$B$3</f>
+        <v>5504.1223028418553</v>
+      </c>
+      <c r="J4" s="15">
+        <f>NPV($B$8-$B$9,$C$3:J3)+$B$3</f>
+        <v>6451.6974096820177</v>
+      </c>
+      <c r="K4" s="15">
+        <f>NPV($B$8-$B$9,$C$3:K3)+$B$3</f>
+        <v>651060.61362747918</v>
+      </c>
+      <c r="L4" s="15">
+        <f>NPV($B$8-$B$9,$C$3:L3)+$B$3</f>
+        <v>1264973.8671682382</v>
+      </c>
+      <c r="M4" s="15">
+        <f>NPV($B$8-$B$9,$C$3:M3)+$B$3</f>
+        <v>1849653.1562546752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15">
-        <f>NPV($B$7-$B$8,B4)</f>
-        <v>-87719.298245614031</v>
-      </c>
-      <c r="C5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:C4)+$B$4</f>
-        <v>-56140.350877192985</v>
-      </c>
-      <c r="D5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:D4)+$B$4</f>
-        <v>-6124.9615266235924</v>
-      </c>
-      <c r="E5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:E4)+$B$4</f>
-        <v>54622.474931557837</v>
-      </c>
-      <c r="F5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:F4)+$B$4</f>
-        <v>54622.474931557837</v>
-      </c>
-      <c r="G5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:G4)+$B$4</f>
-        <v>54622.474931557837</v>
-      </c>
-      <c r="H5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:H4)+$B$4</f>
-        <v>54622.474931557837</v>
-      </c>
-      <c r="I5" s="15">
-        <f>NPV($B$7-$B$8,$C$4:I4)+$B$4</f>
-        <v>54622.474931557837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="5">
+        <f>IRR($B$3:C3,$B$8)</f>
+        <v>-0.31034482758620685</v>
+      </c>
+      <c r="D5" s="5">
+        <f>IRR($B$3:D3,$B$8)</f>
+        <v>0.20482509747171918</v>
+      </c>
+      <c r="E5" s="5">
+        <f>IRR($B$3:E3,$B$8)</f>
+        <v>2.9465124010452035</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IRR($B$3:F3,$B$8)</f>
+        <v>3.2092109180992212</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IRR($B$3:G3,$B$8)</f>
+        <v>3.2623004902205066</v>
+      </c>
+      <c r="H5" s="5">
+        <f>IRR($B$3:H3,$B$8)</f>
+        <v>3.2741815651716157</v>
+      </c>
+      <c r="I5" s="5">
+        <f>IRR($B$3:I3,$B$8)</f>
+        <v>3.2769228196480844</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IRR($B$3:J3,$B$8)</f>
+        <v>3.2775612000760468</v>
+      </c>
+      <c r="K5" s="5">
+        <f>IRR($B$3:K3,$B$8)</f>
+        <v>3.3695545236343607</v>
+      </c>
+      <c r="L5" s="5">
+        <f>IRR($B$3:L3,$B$8)</f>
+        <v>3.3873919535818819</v>
+      </c>
+      <c r="M5" s="5">
+        <f>IRR($B$3:M3,$B$8)</f>
+        <v>3.3913094063061875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="5">
+        <f>C5-$B$8</f>
+        <v>-0.36034482758620684</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:I6" si="0">D5-$B$8</f>
+        <v>0.15482509747171919</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8965124010452037</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1592109180992214</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2123004902205068</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2241815651716159</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2269228196480846</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6" si="1">J5-$B$8</f>
+        <v>3.227561200076047</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6" si="2">K5-$B$8</f>
+        <v>3.3195545236343609</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6" si="3">L5-$B$8</f>
+        <v>3.3373919535818821</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ref="M6" si="4">M5-$B$8</f>
+        <v>3.3413094063061877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="15">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B13" s="15">
-        <v>100000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="D14" s="1" t="s">
+        <v>1.51</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.95</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="15">
+      <c r="H13" s="15">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="18"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="15">
+        <f>-B12+(B13/(B15-B16))</f>
+        <v>32.842857142857142</v>
+      </c>
+      <c r="D18" s="15">
+        <f>-D12+(D13/(D15-D16))</f>
+        <v>20.652380952380952</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="15">
-        <f>-B13+(B14/(B16-B17))</f>
-        <v>-100000</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="18">
-        <f>RATE(E11,E13,-E14)</f>
-        <v>0.10008203492757527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B19" s="24">
+        <f>((B13/B12)+B16)*100</f>
+        <v>17.46019417475728</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="24">
+        <f>((D13/D12)+D16)*100</f>
+        <v>18.932038834951452</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="18"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15">
+        <v>5200000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1400</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="15">
+        <f>E2/E3</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15">
+        <f>PV(B3,B5,-B6)</f>
+        <v>6216488.7549924944</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="15">
+        <v>99000</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15">
+        <f>PV(B3,B9,B10)</f>
+        <v>-1017471.7368961973</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15">
+        <f>B7+B11-B2</f>
+        <v>-982.98190370295197</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="21">
+        <v>806000</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1560000</v>
+      </c>
+      <c r="E19" s="15">
+        <f>D19*(1-E18)</f>
+        <v>1014000</v>
+      </c>
+      <c r="F19" s="15">
+        <f>E19*(1-F18)</f>
+        <v>659100</v>
+      </c>
+      <c r="G19" s="15">
+        <f>F19*(1-G18)</f>
+        <v>428415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="15">
+        <f>C19*C20</f>
+        <v>443300.00000000006</v>
+      </c>
+      <c r="D21" s="15">
+        <f>D19*D20</f>
+        <v>858000.00000000012</v>
+      </c>
+      <c r="E21" s="15">
+        <f>E19*E20</f>
+        <v>557700</v>
+      </c>
+      <c r="F21" s="15">
+        <f>F19*F20</f>
+        <v>362505.00000000006</v>
+      </c>
+      <c r="G21" s="15">
+        <f>G19*G20</f>
+        <v>235628.25000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="15">
+        <v>104000</v>
+      </c>
+      <c r="D22" s="15">
+        <v>104000</v>
+      </c>
+      <c r="E22" s="15">
+        <v>104000</v>
+      </c>
+      <c r="F22" s="15">
+        <v>104000</v>
+      </c>
+      <c r="G22" s="15">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="15">
+        <v>-901000</v>
+      </c>
+      <c r="C24" s="15">
+        <f>C19-C21-C22</f>
+        <v>258699.99999999994</v>
+      </c>
+      <c r="D24" s="15">
+        <f>D19-D21-D22</f>
+        <v>597999.99999999988</v>
+      </c>
+      <c r="E24" s="15">
+        <f>E19-E21-E22</f>
+        <v>352300</v>
+      </c>
+      <c r="F24" s="15">
+        <f>F19-F21-F22</f>
+        <v>192594.99999999994</v>
+      </c>
+      <c r="G24" s="15">
+        <f>G19-G21-G22</f>
+        <v>88786.749999999971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="15">
+        <f>NPV($B$16,$C$24)+$B$24</f>
+        <v>-667936.93693693704</v>
+      </c>
+      <c r="D25" s="15">
+        <f>NPV($B$16,$C$24:D24)+$B$24</f>
+        <v>-182586.72185699246</v>
+      </c>
+      <c r="E25" s="15">
+        <f>NPV($B$16,$C$24:E24)+$B$24</f>
+        <v>75012.001775332377</v>
+      </c>
+      <c r="F25" s="15">
+        <f>NPV($B$16,$C$24:F24)+$B$24</f>
+        <v>201880.29374078871</v>
+      </c>
+      <c r="G25" s="15">
+        <f>NPV($B$16,$C$24:G24)+$B$24</f>
+        <v>254570.9084422919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5">
+        <f>IRR($B$24:C24,$B$16)</f>
+        <v>-0.71287458379578261</v>
+      </c>
+      <c r="D26" s="5">
+        <f>IRR($B$24:D24,$B$16)</f>
+        <v>-2.9202595219574912E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <f>IRR($B$24:E24,$B$16)</f>
+        <v>0.15493464178807836</v>
+      </c>
+      <c r="F26" s="5">
+        <f>IRR($B$24:F24,$B$16)</f>
+        <v>0.21611763883982094</v>
+      </c>
+      <c r="G26" s="5">
+        <f>IRR($B$24:G24,$B$16)</f>
+        <v>0.23577018173163489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-29</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-78</v>
+      </c>
+      <c r="C4" s="15">
+        <v>40</v>
+      </c>
+      <c r="D4" s="15">
+        <v>51</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15">
+        <f>B3-B4</f>
+        <v>49</v>
+      </c>
+      <c r="C6" s="15">
+        <f>C3-C4</f>
+        <v>-20</v>
+      </c>
+      <c r="D6" s="15">
+        <f>D3-D4</f>
+        <v>-32</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:C6)+$B$6</f>
+        <v>30.132075471698116</v>
+      </c>
+      <c r="D7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:D6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="E7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:E6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="F7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:F6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="G7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:G6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="H7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:H6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="I7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:I6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="J7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:J6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="K7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:K6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="L7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:L6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+      <c r="M7" s="15">
+        <f>NPV($B$11-$B$12,$C$6:M6)+$B$6</f>
+        <v>1.6521893912424446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="5">
+        <f>IRR($B$6:C6,$B$11)</f>
+        <v>-0.59183673469387754</v>
+      </c>
+      <c r="D8" s="5">
+        <f>IRR($B$6:D6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>IRR($B$6:E6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IRR($B$6:F6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IRR($B$6:G6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <f>IRR($B$6:H6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <f>IRR($B$6:I6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <f>IRR($B$6:J6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f>IRR($B$6:K6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <f>IRR($B$6:L6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <f>IRR($B$6:M6,$B$11)</f>
+        <v>3.7574606394372934E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="5">
+        <f>C8-$B$11</f>
+        <v>-0.6518367346938776</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:M9" si="0">D8-$B$11</f>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.2425393605627064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="30">
+        <v>-3000000</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>18000000</v>
+      </c>
+      <c r="H3" s="26">
+        <v>15</v>
+      </c>
+      <c r="I3" s="32">
+        <f>IRR(B3:G3,(H3/100))*100</f>
+        <v>43.096908110525092</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="33">
+        <f>NPV(H3/100,C3:G3)+B3</f>
+        <v>5949181.2353692204</v>
+      </c>
+      <c r="L3" s="49">
+        <f>1 + -(K3+B3)/B3</f>
+        <v>1.9830604117897401</v>
+      </c>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="35">
+        <v>-15000000</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>75500000</v>
+      </c>
+      <c r="H4" s="36">
+        <v>15</v>
+      </c>
+      <c r="I4" s="37">
+        <f>IRR(B4:G4,(H4/100))*100</f>
+        <v>38.156441483607686</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K8" si="0">NPV(H4/100,C4:G4)+B4</f>
+        <v>22536843.515020892</v>
+      </c>
+      <c r="L4" s="51">
+        <f t="shared" ref="L4:L8" si="1">1 + -(K4+B4)/B4</f>
+        <v>1.5024562343347261</v>
+      </c>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="30">
+        <v>-9000000</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>50000000</v>
+      </c>
+      <c r="H5" s="26">
+        <v>15</v>
+      </c>
+      <c r="I5" s="32">
+        <f t="shared" ref="I5:I8" si="2">IRR(B5:G5,(H5/100))*100</f>
+        <v>40.911195330433237</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" si="0"/>
+        <v>15858836.764914494</v>
+      </c>
+      <c r="L5" s="49">
+        <f t="shared" si="1"/>
+        <v>1.7620929738793882</v>
+      </c>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-6000000</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>35500000</v>
+      </c>
+      <c r="H6" s="36">
+        <v>8</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="2"/>
+        <v>42.697189830286497</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>18160703.49469823</v>
+      </c>
+      <c r="L6" s="51">
+        <f t="shared" si="1"/>
+        <v>3.0267839157830383</v>
+      </c>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="30">
+        <v>-3000000</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>10000000</v>
+      </c>
+      <c r="H7" s="26">
+        <v>8</v>
+      </c>
+      <c r="I7" s="32">
+        <f t="shared" si="2"/>
+        <v>27.22596365393921</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="0"/>
+        <v>3805831.9703375297</v>
+      </c>
+      <c r="L7" s="49">
+        <f t="shared" si="1"/>
+        <v>1.2686106567791766</v>
+      </c>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="40">
+        <v>-9000000</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>46500000</v>
+      </c>
+      <c r="H8" s="41">
+        <v>8</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="2"/>
+        <v>38.880761359949915</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="0"/>
+        <v>22647118.662069514</v>
+      </c>
+      <c r="L8" s="50">
+        <f t="shared" si="1"/>
+        <v>2.5163465180077238</v>
+      </c>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -262,6 +262,51 @@
   </si>
   <si>
     <t>West Ranch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of printer = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of ink = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Price Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printers Sold Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Price One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Price One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printers Sold One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Price Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Ebit = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Ebit = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Ebit = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Cash Flow One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cash Flow One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer Cash Flow Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cash Flow Two = </t>
   </si>
 </sst>
 </file>
@@ -316,7 +361,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,12 +377,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -464,28 +503,25 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -519,19 +555,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,7 +576,9 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,18 +2084,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2363,8 +2401,287 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="15">
+        <v>30464</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="15">
+        <v>294</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="15">
+        <f>B16*(B17-B32)</f>
+        <v>2802688</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="15">
+        <f>B16*(B18-$B$33)</f>
+        <v>1762342.4000000001</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="15">
+        <v>23800</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="15">
+        <v>343</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="15">
+        <v>89</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="15">
+        <f>B22*(B23-B32)</f>
+        <v>3355800</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="15">
+        <f>B22*(B24-$B$33)</f>
+        <v>1376830</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="15">
+        <f>B19-B25</f>
+        <v>-553112</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="15">
+        <f>B20-B26</f>
+        <v>385512.40000000014</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="15">
+        <f>B28+B29</f>
+        <v>-167599.59999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>202</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <f>89*(1-0.65)</f>
+        <v>31.15</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2372,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,9 +2699,11 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2400,12 +2719,12 @@
       <c r="H1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,7 +2764,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="30">
@@ -2469,67 +2788,67 @@
       <c r="H3" s="26">
         <v>15</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <f>IRR(B3:G3,(H3/100))*100</f>
         <v>43.096908110525092</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <f>NPV(H3/100,C3:G3)+B3</f>
         <v>5949181.2353692204</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="48">
         <f>1 + -(K3+B3)/B3</f>
         <v>1.9830604117897401</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>-15000000</v>
       </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="35">
-        <v>0</v>
-      </c>
-      <c r="G4" s="35">
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
         <v>75500000</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>15</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <f>IRR(B4:G4,(H4/100))*100</f>
         <v>38.156441483607686</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="37">
         <f t="shared" ref="K4:K8" si="0">NPV(H4/100,C4:G4)+B4</f>
         <v>22536843.515020892</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="50">
         <f t="shared" ref="L4:L8" si="1">1 + -(K4+B4)/B4</f>
         <v>1.5024562343347261</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="30">
@@ -2553,67 +2872,67 @@
       <c r="H5" s="26">
         <v>15</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <f t="shared" ref="I5:I8" si="2">IRR(B5:G5,(H5/100))*100</f>
         <v>40.911195330433237</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <f t="shared" si="0"/>
         <v>15858836.764914494</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="48">
         <f t="shared" si="1"/>
         <v>1.7620929738793882</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>-6000000</v>
       </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="35">
-        <v>0</v>
-      </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35">
-        <v>0</v>
-      </c>
-      <c r="G6" s="35">
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
         <v>35500000</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>8</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <f t="shared" si="2"/>
         <v>42.697189830286497</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="37">
         <f t="shared" si="0"/>
         <v>18160703.49469823</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="50">
         <f t="shared" si="1"/>
         <v>3.0267839157830383</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="30">
@@ -2637,64 +2956,64 @@
       <c r="H7" s="26">
         <v>8</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <f t="shared" si="2"/>
         <v>27.22596365393921</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <f t="shared" si="0"/>
         <v>3805831.9703375297</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="48">
         <f t="shared" si="1"/>
         <v>1.2686106567791766</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>-9000000</v>
       </c>
-      <c r="C8" s="40">
-        <v>0</v>
-      </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="C8" s="39">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39">
         <v>46500000</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="40">
         <v>8</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <f t="shared" si="2"/>
         <v>38.880761359949915</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="42">
         <f t="shared" si="0"/>
         <v>22647118.662069514</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="49">
         <f t="shared" si="1"/>
         <v>2.5163465180077238</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="NPV2" sheetId="6" r:id="rId5"/>
     <sheet name="Incremental NVP" sheetId="8" r:id="rId6"/>
     <sheet name="Many NPV" sheetId="10" r:id="rId7"/>
+    <sheet name="Free Cash Flows" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -307,6 +333,114 @@
   </si>
   <si>
     <t xml:space="preserve">Ink Cash Flow Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Price = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Price = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Tax Sheild = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerated Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerated Sheild = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strait-line Sheild = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount rate = </t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Operating income</t>
+  </si>
+  <si>
+    <t>Free cash flows</t>
+  </si>
+  <si>
+    <t>Book value of equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth Rate </t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Cost of capital</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>P/E Ratio</t>
+  </si>
+  <si>
+    <t>market/book Ratio</t>
+  </si>
+  <si>
+    <t>PE Continuation value</t>
+  </si>
+  <si>
+    <t>Market Book Continuation value</t>
+  </si>
+  <si>
+    <t>Continuation value of free cash flow</t>
+  </si>
+  <si>
+    <t>discount rate</t>
+  </si>
+  <si>
+    <t>tax rate</t>
+  </si>
+  <si>
+    <t>cash flow one</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>rental fee</t>
+  </si>
+  <si>
+    <t>maintenance fee</t>
+  </si>
+  <si>
+    <t>rental cash flow</t>
+  </si>
+  <si>
+    <t>rental NPV</t>
+  </si>
+  <si>
+    <t>deprication</t>
+  </si>
+  <si>
+    <t>training fee</t>
+  </si>
+  <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>machine life span</t>
   </si>
 </sst>
 </file>
@@ -319,7 +453,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +494,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -387,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -444,11 +585,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -578,6 +728,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1699,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2084,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,12 +2268,12 @@
     <col min="11" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2145,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2168,7 +2337,7 @@
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2191,7 +2360,7 @@
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2206,7 +2375,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2232,7 +2401,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -2282,7 +2451,7 @@
         <v>1.6521893912424446</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -2332,7 +2501,7 @@
         <v>3.7574606394372934E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
@@ -2382,10 +2551,10 @@
         <v>-2.2425393605627064E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2562,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2401,21 +2570,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -2423,8 +2637,56 @@
         <v>30464</v>
       </c>
       <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.1152</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.1152</v>
+      </c>
+      <c r="M16" s="5">
+        <f>1-SUM(H16:L16)</f>
+        <v>5.7600000000000096E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ref="N16:R16" si="1">1-SUM(I16:M16)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19199999999999995</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11520000000000008</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11519999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -2432,8 +2694,61 @@
         <v>294</v>
       </c>
       <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17">
+        <f>$E$16*$E$17*H16</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:M17" si="2">$E$16*$E$17*I16</f>
+        <v>0.90879999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="3">$E$16*$E$17*J16</f>
+        <v>0.54527999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="4">$E$16*$E$17*K16</f>
+        <v>0.32716799999999996</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="5">$E$16*$E$17*L16</f>
+        <v>0.32716799999999996</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="6">$E$16*$E$17*M16</f>
+        <v>0.16358400000000026</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17" si="7">$E$16*$E$17*N16</f>
+        <v>0.56799999999999984</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="8">$E$16*$E$17*O16</f>
+        <v>0.90879999999999983</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="9">$E$16*$E$17*P16</f>
+        <v>0.54527999999999988</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="10">$E$16*$E$17*Q16</f>
+        <v>0.32716800000000024</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17" si="11">$E$16*$E$17*R16</f>
+        <v>0.3271679999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -2441,11 +2756,55 @@
         <v>89</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="13">
+        <f>H17*E17</f>
+        <v>0.22719999999999999</v>
+      </c>
+      <c r="I18" s="13">
+        <f>NPV($E$22,I17)+$H$18</f>
+        <v>1.0609614678899082</v>
+      </c>
+      <c r="J18" s="13">
+        <f>NPV($E$22,$I$17:J17)+$H$18</f>
+        <v>1.5199127346182981</v>
+      </c>
+      <c r="K18" s="13">
+        <f>NPV($E$22,$I$17:K17)+$H$18</f>
+        <v>1.7725464594229163</v>
+      </c>
+      <c r="L18" s="13">
+        <f>NPV($E$22,$I$17:L17)+$H$18</f>
+        <v>2.0043205188766944</v>
+      </c>
+      <c r="M18" s="13">
+        <f>NPV($E$22,$I$17:M17)+$H$18</f>
+        <v>2.1106388947729231</v>
+      </c>
+      <c r="N18" s="13">
+        <f>NPV($E$22,$I$17:N17)/(1+$E$22)+M18</f>
+        <v>4.1492799373787186</v>
+      </c>
+      <c r="O18" s="13">
+        <f>NPV($E$22,$I$17:O17)/(1+$E$22)+N18</f>
+        <v>6.6440170549511262</v>
+      </c>
+      <c r="P18" s="13">
+        <f>NPV($E$22,$I$17:P17)/(1+$E$22)+O18</f>
+        <v>9.3898162321381822</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>NPV($E$22,$I$17:Q17)/(1+$E$22)+P18</f>
+        <v>12.273814708195687</v>
+      </c>
+      <c r="R18" s="13">
+        <f>NPV($E$22,$I$17:R17)/(1+$E$22)+Q18</f>
+        <v>15.284601531840758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2454,11 +2813,16 @@
         <v>2802688</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="15">
+        <f>E16/E15</f>
+        <v>1.42</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -2467,33 +2831,116 @@
         <v>1762342.4000000001</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="15">
+        <f>E19*E17</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>($E$16/$E$15)*($E$17)</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:R20" si="12">($E$16/$E$15)*($E$17)</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="12"/>
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="15">
+        <f>PV($E$22,H15,-H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" ref="I21:M21" si="13">PV($E$22,I15,-I20)</f>
+        <v>0.52110091743119313</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="13"/>
+        <v>0.99917515360659936</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="13"/>
+        <v>1.4377753702812839</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="13"/>
+        <v>1.8401608901663158</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="13"/>
+        <v>2.2093219175837766</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21" si="14">PV($E$22,N15,-N20)</f>
+        <v>2.548001759251171</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" ref="O21" si="15">PV($E$22,O15,-O20)</f>
+        <v>2.8587172103221752</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" ref="P21" si="16">PV($E$22,P15,-P20)</f>
+        <v>3.1437772571763074</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" ref="Q21:R21" si="17">PV($E$22,Q15,-Q20)</f>
+        <v>3.4053002359415672</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="17"/>
+        <v>3.6452295742583192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -2501,8 +2948,12 @@
         <v>23800</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0.09</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2510,9 +2961,8 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2521,8 +2971,7 @@
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="22"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -2531,7 +2980,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -2540,7 +2989,7 @@
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2550,7 +2999,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -2560,7 +3009,7 @@
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2570,7 +3019,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -2590,7 +3039,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2605,7 +3054,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2625,7 +3074,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -2645,7 +3094,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -2654,10 +3103,10 @@
         <v>-167599.59999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2686,23 +3135,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="10" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3015,10 +3464,530 @@
       </c>
       <c r="M8" s="43"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="15">
+        <v>50000</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <f>-$B$12*(1-$B$32)</f>
+        <v>-30000</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ref="D13:L13" si="3">-$B$12*(1-$B$32)</f>
+        <v>-30000</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <f>NPV($B$33,C13)+$B$13</f>
+        <v>-28037.383177570093</v>
+      </c>
+      <c r="D14" s="9">
+        <f>NPV($B$33,$C$13:D13)+$B$13</f>
+        <v>-54240.545025766442</v>
+      </c>
+      <c r="E14" s="9">
+        <f>NPV($B$33,$C$13:E13)+$B$13</f>
+        <v>-78729.481332492011</v>
+      </c>
+      <c r="F14" s="9">
+        <f>NPV($B$33,$C$13:F13)+$B$13</f>
+        <v>-101616.33769391775</v>
+      </c>
+      <c r="G14" s="9">
+        <f>NPV($B$33,$C$13:G13)+$B$13</f>
+        <v>-123005.92307842782</v>
+      </c>
+      <c r="H14" s="9">
+        <f>NPV($B$33,$C$13:H13)+$B$13</f>
+        <v>-142996.18979292319</v>
+      </c>
+      <c r="I14" s="9">
+        <f>NPV($B$33,$C$13:I13)+$B$13</f>
+        <v>-161678.68204946091</v>
+      </c>
+      <c r="J14" s="9">
+        <f>NPV($B$33,$C$13:J13)+$B$13</f>
+        <v>-179138.95518641206</v>
+      </c>
+      <c r="K14" s="9">
+        <f>NPV($B$33,$C$13:K13)+$B$13</f>
+        <v>-195456.96746393648</v>
+      </c>
+      <c r="L14" s="9">
+        <f>NPV($B$33,$C$13:L13)+$B$13</f>
+        <v>-210707.44622797801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B18/B16</f>
+        <v>22142.857142857141</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="15">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="15">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="15">
+        <f>-B18</f>
+        <v>-155000</v>
+      </c>
+      <c r="C20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="D20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="E20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="F20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="G20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="H20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="I20" s="15">
+        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
+        <v>-4942.8571428571431</v>
+      </c>
+      <c r="J20" s="15">
+        <f>-$B$19*(1-$B$32)</f>
+        <v>-13800</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" ref="K20:L20" si="4">-$B$19*(1-$B$32)</f>
+        <v>-13800</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="4"/>
+        <v>-13800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15">
+        <f>NPV($B$33,C20) +$B$20</f>
+        <v>-159619.49265687584</v>
+      </c>
+      <c r="D21" s="15">
+        <f>NPV($B$33,$C$20:D20) +$B$20</f>
+        <v>-163936.77551376913</v>
+      </c>
+      <c r="E21" s="15">
+        <f>NPV($B$33,$C$20:E20) +$B$20</f>
+        <v>-167971.61930525821</v>
+      </c>
+      <c r="F21" s="15">
+        <f>NPV($B$33,$C$20:F20) +$B$20</f>
+        <v>-171742.50135337882</v>
+      </c>
+      <c r="G21" s="15">
+        <f>NPV($B$33,$C$20:G20) +$B$20</f>
+        <v>-175266.69018339811</v>
+      </c>
+      <c r="H21" s="15">
+        <f>NPV($B$33,$C$20:H20) +$B$20</f>
+        <v>-178560.32460397686</v>
+      </c>
+      <c r="I21" s="15">
+        <f>NPV($B$33,$C$20:I20) +$B$20</f>
+        <v>-181638.48761386354</v>
+      </c>
+      <c r="J21" s="15">
+        <f>NPV($B$33,$C$20:J20) +$B$20</f>
+        <v>-189670.21325686108</v>
+      </c>
+      <c r="K21" s="15">
+        <f>NPV($B$33,$C$20:K20) +$B$20</f>
+        <v>-197176.49890452233</v>
+      </c>
+      <c r="L21" s="15">
+        <f>NPV($B$33,$C$20:L20) +$B$20</f>
+        <v>-204191.71913598143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="15">
+        <f>B25/B23</f>
+        <v>35714.285714285717</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="15">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="15">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="15">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="15">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="15">
+        <f>-B25-(B26*B32)</f>
+        <v>-265600</v>
+      </c>
+      <c r="C29" s="15">
+        <f>(-$B$28)*(1-$B$32)+$B$24*$B$32+$B$27*$B$32</f>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L29" si="5">(-$B$28)*(1-$B$32)+$B$24*$B$32+$B$27*$B$32</f>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="5"/>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="5"/>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="5"/>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="5"/>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="5"/>
+        <v>10885.714285714288</v>
+      </c>
+      <c r="J29" s="15">
+        <f>(-$B$28)*(1-$B$32)+$B$27*$B$32</f>
+        <v>-3400</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" ref="K29:L29" si="6">(-$B$28)*(1-$B$32)+$B$27*$B$32</f>
+        <v>-3400</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="6"/>
+        <v>-3400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15">
+        <f>NPV($B$33,C29) +$B$29</f>
+        <v>-255426.435246996</v>
+      </c>
+      <c r="D30" s="15">
+        <f>NPV($B$33,$C$29:D29) +$B$29</f>
+        <v>-245918.43080493616</v>
+      </c>
+      <c r="E30" s="15">
+        <f>NPV($B$33,$C$29:E29) +$B$29</f>
+        <v>-237032.44534506719</v>
+      </c>
+      <c r="F30" s="15">
+        <f>NPV($B$33,$C$29:F29) +$B$29</f>
+        <v>-228727.78603677842</v>
+      </c>
+      <c r="G30" s="15">
+        <f>NPV($B$33,$C$29:G29) +$B$29</f>
+        <v>-220966.42219725618</v>
+      </c>
+      <c r="H30" s="15">
+        <f>NPV($B$33,$C$29:H29) +$B$29</f>
+        <v>-213712.81113228214</v>
+      </c>
+      <c r="I30" s="15">
+        <f>NPV($B$33,$C$29:I29) +$B$29</f>
+        <v>-206933.73537062417</v>
+      </c>
+      <c r="J30" s="15">
+        <f>NPV($B$33,$C$29:J29) +$B$29</f>
+        <v>-208912.56632614529</v>
+      </c>
+      <c r="K30" s="15">
+        <f>NPV($B$33,$C$29:K29) +$B$29</f>
+        <v>-210761.9410509314</v>
+      </c>
+      <c r="L30" s="15">
+        <f>NPV($B$33,$C$29:L29) +$B$29</f>
+        <v>-212490.32864418943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3028,5 +3997,145 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="55">
+        <v>0</v>
+      </c>
+      <c r="C1" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="58"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="58"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="58">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="58">
+        <v>91.2</v>
+      </c>
+      <c r="C5" s="9">
+        <f>B5*(1+$B$9)</f>
+        <v>93.024000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="58">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="57">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
+        <f>C5/($B$8-$B$9)</f>
+        <v>1162.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <f xml:space="preserve"> B4 * $B$10</f>
+        <v>996.00000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9">
+        <f>B11*B6</f>
+        <v>909.90000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t xml:space="preserve">Present Value = </t>
   </si>
@@ -434,13 +434,25 @@
     <t>deprication</t>
   </si>
   <si>
-    <t>training fee</t>
-  </si>
-  <si>
-    <t>savings</t>
-  </si>
-  <si>
     <t>machine life span</t>
+  </si>
+  <si>
+    <t>yearly savings</t>
+  </si>
+  <si>
+    <t>machine sale price</t>
+  </si>
+  <si>
+    <t>investment purchased</t>
+  </si>
+  <si>
+    <t>training costs</t>
+  </si>
+  <si>
+    <t>Inventory costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Sum = </t>
   </si>
 </sst>
 </file>
@@ -726,9 +738,6 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -747,6 +756,9 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,7 +1447,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2255,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>99</v>
@@ -2641,7 +2653,7 @@
         <v>95</v>
       </c>
       <c r="E16">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>100</v>
@@ -2698,54 +2710,54 @@
         <v>97</v>
       </c>
       <c r="E17" s="5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H17">
         <f>$E$16*$E$17*H16</f>
-        <v>0.56799999999999995</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:M17" si="2">$E$16*$E$17*I16</f>
-        <v>0.90879999999999994</v>
+        <f t="shared" ref="I17" si="2">$E$16*$E$17*I16</f>
+        <v>0.85248000000000002</v>
       </c>
       <c r="J17">
         <f t="shared" ref="J17" si="3">$E$16*$E$17*J16</f>
-        <v>0.54527999999999999</v>
+        <v>0.51148800000000005</v>
       </c>
       <c r="K17">
         <f t="shared" ref="K17" si="4">$E$16*$E$17*K16</f>
-        <v>0.32716799999999996</v>
+        <v>0.30689280000000002</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17" si="5">$E$16*$E$17*L16</f>
-        <v>0.32716799999999996</v>
+        <v>0.30689280000000002</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17" si="6">$E$16*$E$17*M16</f>
-        <v>0.16358400000000026</v>
+        <f>$E$16*$E$17*M16</f>
+        <v>0.15344640000000026</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17" si="7">$E$16*$E$17*N16</f>
-        <v>0.56799999999999984</v>
+        <f t="shared" ref="N17" si="6">$E$16*$E$17*N16</f>
+        <v>0.53279999999999994</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17" si="8">$E$16*$E$17*O16</f>
-        <v>0.90879999999999983</v>
+        <f t="shared" ref="O17" si="7">$E$16*$E$17*O16</f>
+        <v>0.8524799999999999</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17" si="9">$E$16*$E$17*P16</f>
-        <v>0.54527999999999988</v>
+        <f t="shared" ref="P17" si="8">$E$16*$E$17*P16</f>
+        <v>0.51148799999999994</v>
       </c>
       <c r="Q17">
-        <f t="shared" ref="Q17" si="10">$E$16*$E$17*Q16</f>
-        <v>0.32716800000000024</v>
+        <f t="shared" ref="Q17" si="9">$E$16*$E$17*Q16</f>
+        <v>0.30689280000000024</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17" si="11">$E$16*$E$17*R16</f>
-        <v>0.3271679999999999</v>
+        <f t="shared" ref="R17" si="10">$E$16*$E$17*R16</f>
+        <v>0.30689279999999991</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2760,48 +2772,48 @@
         <v>103</v>
       </c>
       <c r="H18" s="13">
-        <f>H17*E17</f>
-        <v>0.22719999999999999</v>
+        <f>PV($E$22,H15,,-H17)</f>
+        <v>0.53280000000000005</v>
       </c>
       <c r="I18" s="13">
-        <f>NPV($E$22,I17)+$H$18</f>
-        <v>1.0609614678899082</v>
+        <f t="shared" ref="I18:M18" si="11">PV($E$22,I15,,-I17)</f>
+        <v>0.79671028037383174</v>
       </c>
       <c r="J18" s="13">
-        <f>NPV($E$22,$I$17:J17)+$H$18</f>
-        <v>1.5199127346182981</v>
+        <f t="shared" si="11"/>
+        <v>0.44675342824700853</v>
       </c>
       <c r="K18" s="13">
-        <f>NPV($E$22,$I$17:K17)+$H$18</f>
-        <v>1.7725464594229163</v>
+        <f t="shared" si="11"/>
+        <v>0.25051594107308883</v>
       </c>
       <c r="L18" s="13">
-        <f>NPV($E$22,$I$17:L17)+$H$18</f>
-        <v>2.0043205188766944</v>
+        <f t="shared" si="11"/>
+        <v>0.23412704773185877</v>
       </c>
       <c r="M18" s="13">
-        <f>NPV($E$22,$I$17:M17)+$H$18</f>
-        <v>2.1106388947729231</v>
+        <f t="shared" si="11"/>
+        <v>0.10940516249152295</v>
       </c>
       <c r="N18" s="13">
         <f>NPV($E$22,$I$17:N17)/(1+$E$22)+M18</f>
-        <v>4.1492799373787186</v>
+        <v>2.1585070286286712</v>
       </c>
       <c r="O18" s="13">
         <f>NPV($E$22,$I$17:O17)/(1+$E$22)+N18</f>
-        <v>6.6440170549511262</v>
+        <v>4.7037600162254236</v>
       </c>
       <c r="P18" s="13">
         <f>NPV($E$22,$I$17:P17)/(1+$E$22)+O18</f>
-        <v>9.3898162321381822</v>
+        <v>7.5272285859490564</v>
       </c>
       <c r="Q18" s="13">
         <f>NPV($E$22,$I$17:Q17)/(1+$E$22)+P18</f>
-        <v>12.273814708195687</v>
+        <v>10.506705893313931</v>
       </c>
       <c r="R18" s="13">
         <f>NPV($E$22,$I$17:R17)/(1+$E$22)+Q18</f>
-        <v>15.284601531840758</v>
+        <v>13.631985759222022</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2818,9 +2830,40 @@
       </c>
       <c r="E19" s="15">
         <f>E16/E15</f>
-        <v>1.42</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" ref="H19:L19" si="12">SUM(C18:H18)</f>
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="12"/>
+        <v>1.3295102803738317</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="12"/>
+        <v>1.7762637086208402</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="12"/>
+        <v>2.0267796496939292</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="12"/>
+        <v>2.2609066974257881</v>
+      </c>
+      <c r="M19" s="13">
+        <f>SUM(H18:M18)</f>
+        <v>2.3703118599173112</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2834,56 +2877,11 @@
       <c r="D20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="20">
         <f>E19*E17</f>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>($E$16/$E$15)*($E$17)</f>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20:R20" si="12">($E$16/$E$15)*($E$17)</f>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="12"/>
-        <v>0.56799999999999995</v>
-      </c>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -2892,52 +2890,51 @@
       <c r="D21" s="22"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="15">
-        <f>PV($E$22,H15,-H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" ref="I21:M21" si="13">PV($E$22,I15,-I20)</f>
-        <v>0.52110091743119313</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="G21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>($E$16/$E$15)*($E$17)</f>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:R21" si="13">($E$16/$E$15)*($E$17)</f>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="13"/>
-        <v>0.99917515360659936</v>
-      </c>
-      <c r="K21" s="15">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="13"/>
-        <v>1.4377753702812839</v>
-      </c>
-      <c r="L21" s="15">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="13"/>
-        <v>1.8401608901663158</v>
-      </c>
-      <c r="M21" s="20">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="13"/>
-        <v>2.2093219175837766</v>
-      </c>
-      <c r="N21" s="20">
-        <f t="shared" ref="N21" si="14">PV($E$22,N15,-N20)</f>
-        <v>2.548001759251171</v>
-      </c>
-      <c r="O21" s="20">
-        <f t="shared" ref="O21" si="15">PV($E$22,O15,-O20)</f>
-        <v>2.8587172103221752</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" ref="P21" si="16">PV($E$22,P15,-P20)</f>
-        <v>3.1437772571763074</v>
-      </c>
-      <c r="Q21" s="20">
-        <f t="shared" ref="Q21:R21" si="17">PV($E$22,Q15,-Q20)</f>
-        <v>3.4053002359415672</v>
-      </c>
-      <c r="R21" s="20">
-        <f t="shared" si="17"/>
-        <v>3.6452295742583192</v>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="13"/>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="13"/>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="13"/>
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
+        <v>2.6640000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2951,16 +2948,57 @@
       <c r="D22" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="52">
-        <v>0.09</v>
+      <c r="E22" s="51">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="G22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="15">
+        <f>PV($E$22,H15,-H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f>PV($E$22,I15,-I21)</f>
+        <v>2.4897196261682262</v>
+      </c>
+      <c r="J22" s="15">
+        <f>PV($E$22,J15,-J21)</f>
+        <v>4.8165603982880603</v>
+      </c>
+      <c r="K22" s="15">
+        <f>PV($E$22,K15,-K21)</f>
+        <v>6.9911779423252911</v>
+      </c>
+      <c r="L22" s="15">
+        <f>PV($E$22,L15,-L21)</f>
+        <v>9.0235307872198955</v>
+      </c>
+      <c r="M22" s="20">
+        <f>PV($E$22,M15,-M21)</f>
+        <v>10.922925969364393</v>
+      </c>
+      <c r="N22" s="20">
+        <f>PV($E$22,N15,-N21)</f>
+        <v>12.698061653611578</v>
+      </c>
+      <c r="O22" s="20">
+        <f>PV($E$22,O15,-O21)</f>
+        <v>14.35706696599213</v>
+      </c>
+      <c r="P22" s="20">
+        <f>PV($E$22,P15,-P21)</f>
+        <v>15.907539220553392</v>
+      </c>
+      <c r="Q22" s="20">
+        <f>PV($E$22,Q15,-Q21)</f>
+        <v>17.356578710797567</v>
+      </c>
+      <c r="R22" s="20">
+        <f>PV($E$22,R15,-R21)</f>
+        <v>18.710821225044455</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2978,7 +3016,6 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -3102,6 +3139,13 @@
         <f>B28+B29</f>
         <v>-167599.59999999986</v>
       </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -3136,22 +3180,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3168,12 +3213,12 @@
       <c r="H1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3526,7 +3571,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="15">
-        <v>50000</v>
+        <v>54000</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3547,44 +3592,44 @@
         <v>0</v>
       </c>
       <c r="C13" s="9">
-        <f>-$B$12*(1-$B$32)</f>
-        <v>-30000</v>
+        <f>-$B$12*(1-$B$34)</f>
+        <v>-32400</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:L13" si="3">-$B$12*(1-$B$32)</f>
-        <v>-30000</v>
+        <f t="shared" ref="D13:L13" si="3">-$B$12*(1-$B$34)</f>
+        <v>-32400</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="3"/>
-        <v>-30000</v>
+        <v>-32400</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3593,44 +3638,44 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
-        <f>NPV($B$33,C13)+$B$13</f>
-        <v>-28037.383177570093</v>
+        <f>NPV($B$35,C13)+$B$13</f>
+        <v>-29999.999999999996</v>
       </c>
       <c r="D14" s="9">
-        <f>NPV($B$33,$C$13:D13)+$B$13</f>
-        <v>-54240.545025766442</v>
+        <f>NPV($B$35,$C$13:D13)+$B$13</f>
+        <v>-57777.777777777774</v>
       </c>
       <c r="E14" s="9">
-        <f>NPV($B$33,$C$13:E13)+$B$13</f>
-        <v>-78729.481332492011</v>
+        <f>NPV($B$35,$C$13:E13)+$B$13</f>
+        <v>-83497.942386831273</v>
       </c>
       <c r="F14" s="9">
-        <f>NPV($B$33,$C$13:F13)+$B$13</f>
-        <v>-101616.33769391775</v>
+        <f>NPV($B$35,$C$13:F13)+$B$13</f>
+        <v>-107312.90961743635</v>
       </c>
       <c r="G14" s="9">
-        <f>NPV($B$33,$C$13:G13)+$B$13</f>
-        <v>-123005.92307842782</v>
+        <f>NPV($B$35,$C$13:G13)+$B$13</f>
+        <v>-129363.80520132995</v>
       </c>
       <c r="H14" s="9">
-        <f>NPV($B$33,$C$13:H13)+$B$13</f>
-        <v>-142996.18979292319</v>
+        <f>NPV($B$35,$C$13:H13)+$B$13</f>
+        <v>-149781.30111234254</v>
       </c>
       <c r="I14" s="9">
-        <f>NPV($B$33,$C$13:I13)+$B$13</f>
-        <v>-161678.68204946091</v>
+        <f>NPV($B$35,$C$13:I13)+$B$13</f>
+        <v>-168686.38991883566</v>
       </c>
       <c r="J14" s="9">
-        <f>NPV($B$33,$C$13:J13)+$B$13</f>
-        <v>-179138.95518641206</v>
+        <f>NPV($B$35,$C$13:J13)+$B$13</f>
+        <v>-186191.10177669968</v>
       </c>
       <c r="K14" s="9">
-        <f>NPV($B$33,$C$13:K13)+$B$13</f>
-        <v>-195456.96746393648</v>
+        <f>NPV($B$35,$C$13:K13)+$B$13</f>
+        <v>-202399.16831175896</v>
       </c>
       <c r="L14" s="9">
-        <f>NPV($B$33,$C$13:L13)+$B$13</f>
-        <v>-210707.44622797801</v>
+        <f>NPV($B$35,$C$13:L13)+$B$13</f>
+        <v>-217406.63732570273</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3649,7 +3694,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2">
         <v>7</v>
@@ -3665,13 +3710,13 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="15">
         <f>B18/B16</f>
-        <v>22142.857142857141</v>
+        <v>23571.428571428572</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3684,132 +3729,132 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="15">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="15">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="15">
         <f>-B18</f>
-        <v>-155000</v>
+        <v>-165000</v>
       </c>
       <c r="C20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" ref="C20:I20" si="4">-$B$19*(1-$B$34)+($B$17*$B$34)</f>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="D20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="E20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="F20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="G20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="H20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="I20" s="15">
-        <f>-$B$19*(1-$B$32)+($B$17*$B$32)</f>
-        <v>-4942.8571428571431</v>
+        <f t="shared" si="4"/>
+        <v>-3171.4285714285706</v>
       </c>
       <c r="J20" s="15">
-        <f>-$B$19*(1-$B$32)</f>
-        <v>-13800</v>
+        <f>-$B$19*(1-$B$34)</f>
+        <v>-12600</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" ref="K20:L20" si="4">-$B$19*(1-$B$32)</f>
-        <v>-13800</v>
+        <f t="shared" ref="K20:L20" si="5">-$B$19*(1-$B$34)</f>
+        <v>-12600</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="4"/>
-        <v>-13800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>-12600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15">
-        <f>NPV($B$33,C20) +$B$20</f>
-        <v>-159619.49265687584</v>
+        <f>NPV($B$35,C20) +$B$20</f>
+        <v>-167936.50793650793</v>
       </c>
       <c r="D21" s="15">
-        <f>NPV($B$33,$C$20:D20) +$B$20</f>
-        <v>-163936.77551376913</v>
+        <f>NPV($B$35,$C$20:D20) +$B$20</f>
+        <v>-170655.49676660789</v>
       </c>
       <c r="E21" s="15">
-        <f>NPV($B$33,$C$20:E20) +$B$20</f>
-        <v>-167971.61930525821</v>
+        <f>NPV($B$35,$C$20:E20) +$B$20</f>
+        <v>-173173.07901670042</v>
       </c>
       <c r="F21" s="15">
-        <f>NPV($B$33,$C$20:F20) +$B$20</f>
-        <v>-171742.50135337882</v>
+        <f>NPV($B$35,$C$20:F20) +$B$20</f>
+        <v>-175504.17369271201</v>
       </c>
       <c r="G21" s="15">
-        <f>NPV($B$33,$C$20:G20) +$B$20</f>
-        <v>-175266.69018339811</v>
+        <f>NPV($B$35,$C$20:G20) +$B$20</f>
+        <v>-177662.59468901905</v>
       </c>
       <c r="H21" s="15">
-        <f>NPV($B$33,$C$20:H20) +$B$20</f>
-        <v>-178560.32460397686</v>
+        <f>NPV($B$35,$C$20:H20) +$B$20</f>
+        <v>-179661.13264856263</v>
       </c>
       <c r="I21" s="15">
-        <f>NPV($B$33,$C$20:I20) +$B$20</f>
-        <v>-181638.48761386354</v>
+        <f>NPV($B$35,$C$20:I20) +$B$20</f>
+        <v>-181511.6307592511</v>
       </c>
       <c r="J21" s="15">
-        <f>NPV($B$33,$C$20:J20) +$B$20</f>
-        <v>-189670.21325686108</v>
+        <f>NPV($B$35,$C$20:J20) +$B$20</f>
+        <v>-188319.01870397601</v>
       </c>
       <c r="K21" s="15">
-        <f>NPV($B$33,$C$20:K20) +$B$20</f>
-        <v>-197176.49890452233</v>
+        <f>NPV($B$35,$C$20:K20) +$B$20</f>
+        <v>-194622.15568983238</v>
       </c>
       <c r="L21" s="15">
-        <f>NPV($B$33,$C$20:L20) +$B$20</f>
-        <v>-204191.71913598143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <f>NPV($B$35,$C$20:L20) +$B$20</f>
+        <v>-200458.39363969941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="15">
         <f>B25/B23</f>
-        <v>35714.285714285717</v>
+        <v>36428.571428571428</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3822,171 +3867,189 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B25" s="15">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B26" s="15">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="15">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="15">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="15">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="15">
-        <f>-B25-(B26*B32)</f>
-        <v>-265600</v>
-      </c>
-      <c r="C29" s="15">
-        <f>(-$B$28)*(1-$B$32)+$B$24*$B$32+$B$27*$B$32</f>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="D29" s="15">
-        <f t="shared" ref="D29:L29" si="5">(-$B$28)*(1-$B$32)+$B$24*$B$32+$B$27*$B$32</f>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="5"/>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="5"/>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="G29" s="15">
-        <f t="shared" si="5"/>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="5"/>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="5"/>
-        <v>10885.714285714288</v>
-      </c>
-      <c r="J29" s="15">
-        <f>(-$B$28)*(1-$B$32)+$B$27*$B$32</f>
-        <v>-3400</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" ref="K29:L29" si="6">(-$B$28)*(1-$B$32)+$B$27*$B$32</f>
-        <v>-3400</v>
-      </c>
-      <c r="L29" s="15">
+      <c r="B31" s="15">
+        <f>-B25-B27-(B26*(1-B34))</f>
+        <v>-276600</v>
+      </c>
+      <c r="C31" s="15">
+        <f>($B$28-$B$30)*(1-$B$34)+($B$24*$B$34)</f>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" ref="D31:L31" si="6">($B$28-$B$30)*(1-$B$34)+($B$24*$B$34)</f>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="E31" s="15">
         <f t="shared" si="6"/>
-        <v>-3400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+        <v>10971.428571428572</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="6"/>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="G31" s="15">
+        <f>($B$28-$B$30)*(1-$B$34)+($B$24*$B$34)</f>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="6"/>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="6"/>
+        <v>10971.428571428572</v>
+      </c>
+      <c r="J31" s="15">
+        <f>($B$28-$B$30)*(1-$B$34)</f>
+        <v>-3600</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" ref="K31:L31" si="7">($B$28-$B$30)*(1-$B$34)</f>
+        <v>-3600</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="7"/>
+        <v>-3600</v>
+      </c>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15">
-        <f>NPV($B$33,C29) +$B$29</f>
-        <v>-255426.435246996</v>
-      </c>
-      <c r="D30" s="15">
-        <f>NPV($B$33,$C$29:D29) +$B$29</f>
-        <v>-245918.43080493616</v>
-      </c>
-      <c r="E30" s="15">
-        <f>NPV($B$33,$C$29:E29) +$B$29</f>
-        <v>-237032.44534506719</v>
-      </c>
-      <c r="F30" s="15">
-        <f>NPV($B$33,$C$29:F29) +$B$29</f>
-        <v>-228727.78603677842</v>
-      </c>
-      <c r="G30" s="15">
-        <f>NPV($B$33,$C$29:G29) +$B$29</f>
-        <v>-220966.42219725618</v>
-      </c>
-      <c r="H30" s="15">
-        <f>NPV($B$33,$C$29:H29) +$B$29</f>
-        <v>-213712.81113228214</v>
-      </c>
-      <c r="I30" s="15">
-        <f>NPV($B$33,$C$29:I29) +$B$29</f>
-        <v>-206933.73537062417</v>
-      </c>
-      <c r="J30" s="15">
-        <f>NPV($B$33,$C$29:J29) +$B$29</f>
-        <v>-208912.56632614529</v>
-      </c>
-      <c r="K30" s="15">
-        <f>NPV($B$33,$C$29:K29) +$B$29</f>
-        <v>-210761.9410509314</v>
-      </c>
-      <c r="L30" s="15">
-        <f>NPV($B$33,$C$29:L29) +$B$29</f>
-        <v>-212490.32864418943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15">
+        <f>NPV($B$35,C31) +$B$31</f>
+        <v>-266441.26984126982</v>
+      </c>
+      <c r="D32" s="15">
+        <f>NPV($B$35,$C$31:D31) +$B$31</f>
+        <v>-257035.038212816</v>
+      </c>
+      <c r="E32" s="15">
+        <f>NPV($B$35,$C$31:E31) +$B$31</f>
+        <v>-248325.56448276615</v>
+      </c>
+      <c r="F32" s="15">
+        <f>NPV($B$35,$C$31:F31) +$B$31</f>
+        <v>-240261.23695494217</v>
+      </c>
+      <c r="G32" s="15">
+        <f>NPV($B$35,$C$31:G31) +$B$31</f>
+        <v>-232794.26702177187</v>
+      </c>
+      <c r="H32" s="15">
+        <f>NPV($B$35,$C$31:H31) +$B$31</f>
+        <v>-225880.40597254009</v>
+      </c>
+      <c r="I32" s="15">
+        <f>NPV($B$35,$C$31:I31) +$B$31</f>
+        <v>-219478.68277880695</v>
+      </c>
+      <c r="J32" s="15">
+        <f>NPV($B$35,$C$31:J31) +$B$31</f>
+        <v>-221423.65076301407</v>
+      </c>
+      <c r="K32" s="15">
+        <f>NPV($B$35,$C$31:K31) +$B$31</f>
+        <v>-223224.54704468732</v>
+      </c>
+      <c r="L32" s="15">
+        <f>NPV($B$35,$C$31:L31) +$B$31</f>
+        <v>-224892.04360179219</v>
+      </c>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B34" s="51">
         <v>0.4</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="52">
-        <v>7.0000000000000007E-2</v>
+      <c r="B35" s="51">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -4017,41 +4080,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="55">
-        <v>0</v>
-      </c>
-      <c r="C1" s="55">
+      <c r="B1" s="54">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>33.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>91.2</v>
       </c>
       <c r="C5" s="9">
@@ -4060,18 +4123,18 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>168.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="3">
@@ -4079,7 +4142,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="3">
@@ -4087,26 +4150,26 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="9"/>
@@ -4116,7 +4179,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="9"/>
@@ -4126,7 +4189,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="9">

--- a/Spring_2017.xlsx
+++ b/Spring_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loans" sheetId="3" r:id="rId1"/>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,14 +1181,14 @@
         <v>4</v>
       </c>
       <c r="B1" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6">
         <f>B1/POWER((1+B4/B10), B9*B10)</f>
-        <v>17.411013091063428</v>
+        <v>174.11013091063427</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1201,7 +1201,9 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>947.02</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1218,7 @@
       </c>
       <c r="E3" s="6">
         <f>B1*B6</f>
-        <v>7.0000000000000009</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1241,7 +1243,7 @@
       </c>
       <c r="E5" s="6">
         <f>-PV(B4/B10,B9*B10,B6/B10*B1,B1,B12)</f>
-        <v>113.76483115148945</v>
+        <v>1275.2966230297886</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,14 +1251,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>80</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2267,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2956,47 +2960,47 @@
         <v>103</v>
       </c>
       <c r="H22" s="15">
-        <f>PV($E$22,H15,-H21)</f>
+        <f t="shared" ref="H22:R22" si="14">PV($E$22,H15,-H21)</f>
         <v>0</v>
       </c>
       <c r="I22" s="15">
-        <f>PV($E$22,I15,-I21)</f>
+        <f t="shared" si="14"/>
         <v>2.4897196261682262</v>
       </c>
       <c r="J22" s="15">
-        <f>PV($E$22,J15,-J21)</f>
+        <f t="shared" si="14"/>
         <v>4.8165603982880603</v>
       </c>
       <c r="K22" s="15">
-        <f>PV($E$22,K15,-K21)</f>
+        <f t="shared" si="14"/>
         <v>6.9911779423252911</v>
       </c>
       <c r="L22" s="15">
-        <f>PV($E$22,L15,-L21)</f>
+        <f t="shared" si="14"/>
         <v>9.0235307872198955</v>
       </c>
       <c r="M22" s="20">
-        <f>PV($E$22,M15,-M21)</f>
+        <f t="shared" si="14"/>
         <v>10.922925969364393</v>
       </c>
       <c r="N22" s="20">
-        <f>PV($E$22,N15,-N21)</f>
+        <f t="shared" si="14"/>
         <v>12.698061653611578</v>
       </c>
       <c r="O22" s="20">
-        <f>PV($E$22,O15,-O21)</f>
+        <f t="shared" si="14"/>
         <v>14.35706696599213</v>
       </c>
       <c r="P22" s="20">
-        <f>PV($E$22,P15,-P21)</f>
+        <f t="shared" si="14"/>
         <v>15.907539220553392</v>
       </c>
       <c r="Q22" s="20">
-        <f>PV($E$22,Q15,-Q21)</f>
+        <f t="shared" si="14"/>
         <v>17.356578710797567</v>
       </c>
       <c r="R22" s="20">
-        <f>PV($E$22,R15,-R21)</f>
+        <f t="shared" si="14"/>
         <v>18.710821225044455</v>
       </c>
     </row>
@@ -3928,7 +3932,7 @@
         <v>10971.428571428572</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" ref="D31:L31" si="6">($B$28-$B$30)*(1-$B$34)+($B$24*$B$34)</f>
+        <f t="shared" ref="D31:I31" si="6">($B$28-$B$30)*(1-$B$34)+($B$24*$B$34)</f>
         <v>10971.428571428572</v>
       </c>
       <c r="E31" s="15">
